--- a/orangehrmlive project.xlsx
+++ b/orangehrmlive project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aksha\Desktop\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{606419C4-DBBB-4224-B0CB-C998A8DA94E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E62057-8B70-495F-82EF-D56D52672DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="2" xr2:uid="{53CEF129-E513-454E-9C5F-07BCB60AEE14}"/>
   </bookViews>
@@ -575,10 +575,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B60D88C-E424-4830-BA49-A8AF09AE76C1}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1204,7 +1200,7 @@
     <col min="13" max="20" width="9.06640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
@@ -1229,143 +1225,169 @@
       <c r="T1" s="14"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="71.25" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>60</v>
@@ -1379,28 +1401,28 @@
     </row>
     <row r="7" spans="1:20" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>60</v>
@@ -1412,30 +1434,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>60</v>
@@ -1447,30 +1469,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>60</v>
@@ -1484,28 +1506,28 @@
     </row>
     <row r="10" spans="1:20" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>60</v>
@@ -1517,30 +1539,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>60</v>
@@ -1552,75 +1574,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>26</v>
-      </c>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
@@ -1804,35 +1782,9 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T3"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
